--- a/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA75A23-9955-41E7-B9BD-9367774F5992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="355">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1116,11 +1117,14 @@
   <si>
     <t>12/2,9/2022</t>
   </si>
+  <si>
+    <t>11/22,23/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1798,7 +1802,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1815,26 +1819,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K540"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K540" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2141,34 +2145,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4065" topLeftCell="A432" activePane="bottomLeft"/>
+      <pane ySplit="4068" topLeftCell="A502" activePane="bottomLeft"/>
       <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="E448" sqref="E448"/>
+      <selection pane="bottomLeft" activeCell="C508" sqref="C508:C509"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2195,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2213,7 +2217,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2239,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2243,7 +2247,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2256,7 +2260,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2273,7 +2277,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2317,7 +2321,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.678</v>
+        <v>177.428</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2327,12 +2331,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>343.875</v>
+        <v>347.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>86</v>
       </c>
@@ -2354,7 +2358,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36585</v>
       </c>
@@ -2378,7 +2382,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36586</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>36588</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>105</v>
@@ -2424,7 +2428,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>36617</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>108</v>
@@ -2468,7 +2472,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>109</v>
@@ -2490,7 +2494,7 @@
         <v>36630</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>36647</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>110</v>
@@ -2536,7 +2540,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>36678</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>36706</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>111</v>
@@ -2582,7 +2586,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>36708</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>36711</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>109</v>
@@ -2630,7 +2634,7 @@
         <v>36726</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>113</v>
@@ -2650,7 +2654,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>36739</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>36740</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>106</v>
@@ -2696,7 +2700,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>36770</v>
       </c>
@@ -2720,7 +2724,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>36800</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>36831</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>118</v>
@@ -2790,7 +2794,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>36861</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>36889</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>119</v>
@@ -2836,7 +2840,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>87</v>
       </c>
@@ -2858,7 +2862,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>36892</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>36923</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>122</v>
@@ -2930,7 +2934,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>36951</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>106</v>
@@ -2976,7 +2980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>123</v>
@@ -2996,7 +3000,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>36982</v>
       </c>
@@ -3020,7 +3024,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>106</v>
@@ -3040,7 +3044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>37012</v>
       </c>
@@ -3064,7 +3068,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>37043</v>
       </c>
@@ -3088,7 +3092,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>37073</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>37104</v>
       </c>
@@ -3136,7 +3140,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>37135</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>37138</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>81</v>
@@ -3184,7 +3188,7 @@
         <v>37154</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>112</v>
@@ -3206,7 +3210,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>129</v>
@@ -3226,7 +3230,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>37165</v>
       </c>
@@ -3250,7 +3254,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>37196</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>37201</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>134</v>
@@ -3293,7 +3297,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>37226</v>
       </c>
@@ -3313,7 +3317,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>88</v>
       </c>
@@ -3335,7 +3339,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>37257</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>37285</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>106</v>
@@ -3381,7 +3385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>135</v>
@@ -3401,7 +3405,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>37288</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>138</v>
@@ -3449,7 +3453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>139</v>
@@ -3469,7 +3473,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>37316</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>109</v>
@@ -3517,7 +3521,7 @@
         <v>37342</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>106</v>
@@ -3537,7 +3541,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>140</v>
@@ -3557,7 +3561,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>37347</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>124</v>
@@ -3603,7 +3607,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>37377</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -3646,7 +3650,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>37408</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>106</v>
@@ -3690,7 +3694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>37438</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>37469</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>37500</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>37530</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>37561</v>
       </c>
@@ -3812,7 +3816,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>109</v>
@@ -3831,7 +3835,7 @@
         <v>37567</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>147</v>
@@ -3848,7 +3852,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>37591</v>
       </c>
@@ -3868,7 +3872,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>89</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>37622</v>
       </c>
@@ -3914,7 +3918,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>106</v>
@@ -3934,7 +3938,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>82</v>
@@ -3956,7 +3960,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>37653</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>37663</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>150</v>
@@ -4002,7 +4006,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>37681</v>
       </c>
@@ -4026,7 +4030,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>37712</v>
       </c>
@@ -4050,7 +4054,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>37742</v>
       </c>
@@ -4070,7 +4074,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>37773</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>109</v>
@@ -4118,7 +4122,7 @@
         <v>37799</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>37803</v>
       </c>
@@ -4142,7 +4146,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>37834</v>
       </c>
@@ -4166,7 +4170,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>37865</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>37895</v>
       </c>
@@ -4212,7 +4216,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>37926</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>37956</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>37965</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>80</v>
@@ -4282,7 +4286,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>113</v>
@@ -4302,7 +4306,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>90</v>
       </c>
@@ -4324,7 +4328,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>37987</v>
       </c>
@@ -4348,7 +4352,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>106</v>
@@ -4368,7 +4372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>38018</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>38047</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>158</v>
@@ -4438,7 +4442,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>38078</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>159</v>
@@ -4484,7 +4488,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>38108</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>37390</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>162</v>
@@ -4530,7 +4534,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>38139</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>115</v>
@@ -4576,7 +4580,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>38169</v>
       </c>
@@ -4600,7 +4604,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>38200</v>
       </c>
@@ -4624,7 +4628,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>38231</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>164</v>
@@ -4668,7 +4672,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>38261</v>
       </c>
@@ -4692,7 +4696,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>38292</v>
       </c>
@@ -4718,7 +4722,7 @@
         <v>38299</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>166</v>
@@ -4738,7 +4742,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>38322</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>167</v>
@@ -4784,7 +4788,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>91</v>
       </c>
@@ -4806,7 +4810,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>38353</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>109</v>
@@ -4854,7 +4858,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>106</v>
@@ -4874,7 +4878,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>169</v>
@@ -4894,7 +4898,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>38384</v>
       </c>
@@ -4920,7 +4924,7 @@
         <v>38394</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>171</v>
@@ -4940,7 +4944,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>38412</v>
       </c>
@@ -4966,7 +4970,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>109</v>
@@ -4988,7 +4992,7 @@
         <v>38422</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>172</v>
@@ -5008,7 +5012,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>38443</v>
       </c>
@@ -5032,7 +5036,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>38473</v>
       </c>
@@ -5056,7 +5060,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>38504</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>109</v>
@@ -5104,7 +5108,7 @@
         <v>38518</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>169</v>
@@ -5124,7 +5128,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>38534</v>
       </c>
@@ -5148,7 +5152,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>38565</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>106</v>
@@ -5192,7 +5196,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>175</v>
@@ -5212,7 +5216,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>38596</v>
       </c>
@@ -5236,7 +5240,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>38626</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>109</v>
@@ -5281,7 +5285,7 @@
         <v>38639</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>81</v>
@@ -5300,7 +5304,7 @@
         <v>38664</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>177</v>
@@ -5317,7 +5321,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>38657</v>
       </c>
@@ -5341,7 +5345,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>38687</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>183</v>
@@ -5384,7 +5388,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>92</v>
       </c>
@@ -5406,7 +5410,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>38718</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>106</v>
@@ -5452,7 +5456,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>106</v>
@@ -5472,7 +5476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>185</v>
@@ -5494,7 +5498,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>186</v>
@@ -5514,7 +5518,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>38749</v>
       </c>
@@ -5538,7 +5542,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>38777</v>
       </c>
@@ -5562,7 +5566,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>38808</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>38814</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>109</v>
@@ -5610,7 +5614,7 @@
         <v>38841</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>109</v>
@@ -5632,7 +5636,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>109</v>
@@ -5654,7 +5658,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>176</v>
@@ -5674,7 +5678,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>38838</v>
       </c>
@@ -5698,7 +5702,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>38869</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>109</v>
@@ -5746,7 +5750,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>191</v>
@@ -5766,7 +5770,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>38899</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>38926</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>197</v>
@@ -5812,7 +5816,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="49"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>38930</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>38943</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>106</v>
@@ -5858,7 +5862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>198</v>
@@ -5878,7 +5882,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>38961</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>38987</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>199</v>
@@ -5924,7 +5928,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>38991</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>39020</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>109</v>
@@ -5972,7 +5976,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>200</v>
@@ -5992,7 +5996,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>39022</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>109</v>
@@ -6040,7 +6044,7 @@
         <v>39071</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>201</v>
@@ -6060,7 +6064,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>39052</v>
       </c>
@@ -6084,7 +6088,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="48" t="s">
         <v>93</v>
       </c>
@@ -6106,7 +6110,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>39083</v>
       </c>
@@ -6132,7 +6136,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>106</v>
@@ -6152,7 +6156,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>205</v>
@@ -6172,7 +6176,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>39114</v>
       </c>
@@ -6198,7 +6202,7 @@
         <v>39125</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>206</v>
@@ -6218,7 +6222,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>39142</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>208</v>
@@ -6264,7 +6268,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="49"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <v>39173</v>
       </c>
@@ -6288,7 +6292,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>39203</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>106</v>
@@ -6334,7 +6338,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>210</v>
@@ -6354,7 +6358,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>39234</v>
       </c>
@@ -6378,7 +6382,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>39264</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>106</v>
@@ -6424,7 +6428,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>212</v>
@@ -6444,7 +6448,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>39295</v>
       </c>
@@ -6468,7 +6472,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>39326</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>39351</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>214</v>
@@ -6514,7 +6518,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>39356</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>215</v>
@@ -6557,7 +6561,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>39387</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>109</v>
@@ -6605,7 +6609,7 @@
         <v>39429</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>216</v>
@@ -6625,7 +6629,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>39417</v>
       </c>
@@ -6649,7 +6653,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="48" t="s">
         <v>103</v>
       </c>
@@ -6671,7 +6675,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <v>39448</v>
       </c>
@@ -6695,7 +6699,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>222</v>
@@ -6715,7 +6719,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>106</v>
@@ -6735,7 +6739,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>106</v>
@@ -6755,7 +6759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>39479</v>
       </c>
@@ -6779,7 +6783,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>39508</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>109</v>
@@ -6827,7 +6831,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>225</v>
@@ -6847,7 +6851,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>39539</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>189</v>
@@ -6891,7 +6895,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>39569</v>
       </c>
@@ -6915,7 +6919,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>39600</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>39612</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>109</v>
@@ -6963,7 +6967,7 @@
         <v>39626</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>227</v>
@@ -6983,7 +6987,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>39630</v>
       </c>
@@ -7007,7 +7011,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>39661</v>
       </c>
@@ -7031,7 +7035,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>39692</v>
       </c>
@@ -7057,7 +7061,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>109</v>
@@ -7079,7 +7083,7 @@
         <v>39714</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>230</v>
@@ -7099,7 +7103,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <v>39722</v>
       </c>
@@ -7125,7 +7129,7 @@
         <v>39729</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>231</v>
@@ -7145,7 +7149,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <v>39753</v>
       </c>
@@ -7171,7 +7175,7 @@
         <v>39759</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>233</v>
@@ -7191,7 +7195,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>39783</v>
       </c>
@@ -7215,7 +7219,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>94</v>
       </c>
@@ -7237,7 +7241,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>39814</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>235</v>
@@ -7281,7 +7285,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>39845</v>
       </c>
@@ -7305,7 +7309,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>109</v>
@@ -7327,7 +7331,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>39873</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>109</v>
@@ -7373,7 +7377,7 @@
         <v>39915</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>237</v>
@@ -7393,7 +7397,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>39904</v>
       </c>
@@ -7417,7 +7421,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>39934</v>
       </c>
@@ -7441,7 +7445,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <v>39965</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>240</v>
@@ -7487,7 +7491,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>39995</v>
       </c>
@@ -7511,7 +7515,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>40026</v>
       </c>
@@ -7535,7 +7539,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>40057</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>109</v>
@@ -7581,7 +7585,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>243</v>
@@ -7601,7 +7605,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="52"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <v>40087</v>
       </c>
@@ -7625,7 +7629,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>40118</v>
       </c>
@@ -7649,7 +7653,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>40148</v>
       </c>
@@ -7673,7 +7677,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="48" t="s">
         <v>95</v>
       </c>
@@ -7695,7 +7699,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>40179</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>250</v>
@@ -7739,7 +7743,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>40210</v>
       </c>
@@ -7763,7 +7767,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>40238</v>
       </c>
@@ -7787,7 +7791,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>40269</v>
       </c>
@@ -7811,7 +7815,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>40299</v>
       </c>
@@ -7835,7 +7839,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>40330</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>40357</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>255</v>
@@ -7881,7 +7885,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>40360</v>
       </c>
@@ -7905,7 +7909,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>40391</v>
       </c>
@@ -7929,7 +7933,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>40422</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>106</v>
@@ -7975,7 +7979,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>258</v>
@@ -7995,7 +7999,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>40452</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>259</v>
@@ -8041,7 +8045,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>40483</v>
       </c>
@@ -8067,7 +8071,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>260</v>
@@ -8087,7 +8091,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>40513</v>
       </c>
@@ -8111,7 +8115,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>96</v>
       </c>
@@ -8133,7 +8137,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>40544</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>174</v>
@@ -8177,7 +8181,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <v>40575</v>
       </c>
@@ -8201,7 +8205,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>40603</v>
       </c>
@@ -8225,7 +8229,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>40634</v>
       </c>
@@ -8249,7 +8253,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>40664</v>
       </c>
@@ -8275,7 +8279,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>109</v>
@@ -8297,7 +8301,7 @@
         <v>40680</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>268</v>
@@ -8317,7 +8321,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>40695</v>
       </c>
@@ -8343,7 +8347,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>139</v>
@@ -8363,7 +8367,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>40725</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -8409,7 +8413,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <v>40756</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>40751</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>269</v>
@@ -8453,7 +8457,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>40787</v>
       </c>
@@ -8477,7 +8481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>270</v>
@@ -8497,7 +8501,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>40817</v>
       </c>
@@ -8523,7 +8527,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>109</v>
@@ -8545,7 +8549,7 @@
         <v>40870</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>182</v>
@@ -8567,7 +8571,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>269</v>
@@ -8587,7 +8591,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <v>40848</v>
       </c>
@@ -8611,7 +8615,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>40878</v>
       </c>
@@ -8635,7 +8639,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>97</v>
       </c>
@@ -8657,7 +8661,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>40909</v>
       </c>
@@ -8681,7 +8685,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <v>40940</v>
       </c>
@@ -8705,7 +8709,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>40969</v>
       </c>
@@ -8731,7 +8735,7 @@
         <v>40975</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>163</v>
@@ -8751,7 +8755,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <v>41000</v>
       </c>
@@ -8777,7 +8781,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>109</v>
@@ -8799,7 +8803,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>280</v>
@@ -8819,7 +8823,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>41030</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>138</v>
@@ -8864,7 +8868,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>108</v>
@@ -8881,7 +8885,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <v>41061</v>
       </c>
@@ -8905,7 +8909,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>41091</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>282</v>
@@ -8951,7 +8955,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>41122</v>
       </c>
@@ -8975,7 +8979,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>41153</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>106</v>
@@ -9019,7 +9023,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>123</v>
@@ -9039,7 +9043,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>41183</v>
       </c>
@@ -9063,7 +9067,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>41214</v>
       </c>
@@ -9087,7 +9091,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>41244</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>41261</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>109</v>
@@ -9132,7 +9136,7 @@
         <v>41254</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>235</v>
@@ -9149,7 +9153,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>98</v>
       </c>
@@ -9171,7 +9175,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>41275</v>
       </c>
@@ -9195,7 +9199,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <v>41306</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>291</v>
@@ -9241,7 +9245,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>41334</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>41340</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>176</v>
@@ -9287,7 +9291,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <v>41365</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>41376</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>80</v>
@@ -9335,7 +9339,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>128</v>
@@ -9355,7 +9359,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <v>41395</v>
       </c>
@@ -9381,7 +9385,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>292</v>
@@ -9401,7 +9405,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>41426</v>
       </c>
@@ -9427,7 +9431,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>293</v>
@@ -9447,7 +9451,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>41456</v>
       </c>
@@ -9471,7 +9475,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <v>41487</v>
       </c>
@@ -9497,7 +9501,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>298</v>
@@ -9517,7 +9521,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="49"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <v>41518</v>
       </c>
@@ -9543,7 +9547,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>106</v>
@@ -9563,7 +9567,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>106</v>
@@ -9583,7 +9587,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>299</v>
@@ -9603,7 +9607,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <v>41548</v>
       </c>
@@ -9627,7 +9631,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>300</v>
@@ -9647,7 +9651,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>41579</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>126</v>
@@ -9693,7 +9697,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>41609</v>
       </c>
@@ -9717,7 +9721,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
         <v>99</v>
       </c>
@@ -9739,7 +9743,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <v>41640</v>
       </c>
@@ -9763,7 +9767,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>41671</v>
       </c>
@@ -9787,7 +9791,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>41699</v>
       </c>
@@ -9811,7 +9815,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <v>41730</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>303</v>
@@ -9857,7 +9861,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>41760</v>
       </c>
@@ -9881,7 +9885,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>109</v>
@@ -9903,7 +9907,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>106</v>
@@ -9923,7 +9927,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>304</v>
@@ -9943,7 +9947,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <v>41791</v>
       </c>
@@ -9969,7 +9973,7 @@
         <v>41799</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>109</v>
@@ -9991,7 +9995,7 @@
         <v>41808</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>109</v>
@@ -10013,7 +10017,7 @@
         <v>41814</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>115</v>
@@ -10033,7 +10037,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>41821</v>
       </c>
@@ -10057,7 +10061,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>41852</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>313</v>
@@ -10103,7 +10107,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <v>41883</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>109</v>
@@ -10149,7 +10153,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>107</v>
@@ -10169,7 +10173,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>41913</v>
       </c>
@@ -10195,7 +10199,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>314</v>
@@ -10215,7 +10219,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <v>41944</v>
       </c>
@@ -10241,7 +10245,7 @@
         <v>41949</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>303</v>
@@ -10261,7 +10265,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>41974</v>
       </c>
@@ -10287,7 +10291,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>315</v>
@@ -10307,7 +10311,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="48" t="s">
         <v>100</v>
       </c>
@@ -10329,7 +10333,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <v>42005</v>
       </c>
@@ -10353,7 +10357,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>80</v>
@@ -10375,7 +10379,7 @@
         <v>42039</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>303</v>
@@ -10395,7 +10399,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <v>42036</v>
       </c>
@@ -10419,7 +10423,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <v>42064</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>320</v>
@@ -10463,7 +10467,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <v>42095</v>
       </c>
@@ -10489,7 +10493,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>151</v>
@@ -10509,7 +10513,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <v>42125</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <v>42156</v>
       </c>
@@ -10561,7 +10565,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>321</v>
@@ -10581,7 +10585,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <v>42186</v>
       </c>
@@ -10605,7 +10609,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <v>42217</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>322</v>
@@ -10651,7 +10655,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <v>42248</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>323</v>
@@ -10699,7 +10703,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <v>42278</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <v>42309</v>
       </c>
@@ -10749,7 +10753,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>324</v>
@@ -10769,7 +10773,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <v>42339</v>
       </c>
@@ -10793,7 +10797,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="48" t="s">
         <v>101</v>
       </c>
@@ -10815,7 +10819,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <v>42370</v>
       </c>
@@ -10839,7 +10843,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <v>42401</v>
       </c>
@@ -10865,7 +10869,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <v>42430</v>
       </c>
@@ -10885,7 +10889,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>42461</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>109</v>
@@ -10933,7 +10937,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <v>42491</v>
       </c>
@@ -10953,7 +10957,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <v>42522</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>336</v>
@@ -11001,7 +11005,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <v>42552</v>
       </c>
@@ -11021,7 +11025,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <v>42583</v>
       </c>
@@ -11045,7 +11049,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <v>42614</v>
       </c>
@@ -11071,7 +11075,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>339</v>
@@ -11090,7 +11094,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <v>42644</v>
       </c>
@@ -11110,7 +11114,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <v>42675</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <v>42705</v>
       </c>
@@ -11156,7 +11160,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>102</v>
       </c>
@@ -11178,7 +11182,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <v>42736</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>138</v>
@@ -11221,7 +11225,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <v>42767</v>
       </c>
@@ -11241,7 +11245,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <v>42795</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <v>42826</v>
       </c>
@@ -11285,7 +11289,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>42856</v>
       </c>
@@ -11311,7 +11315,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>109</v>
@@ -11330,7 +11334,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>109</v>
@@ -11349,7 +11353,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>109</v>
@@ -11368,7 +11372,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <v>42887</v>
       </c>
@@ -11388,7 +11392,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <v>42917</v>
       </c>
@@ -11408,7 +11412,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <v>42948</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <v>42979</v>
       </c>
@@ -11452,7 +11456,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <v>43009</v>
       </c>
@@ -11478,7 +11482,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>109</v>
@@ -11500,7 +11504,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <v>43040</v>
       </c>
@@ -11520,7 +11524,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <v>43070</v>
       </c>
@@ -11540,7 +11544,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>48</v>
       </c>
@@ -11562,7 +11566,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>43101</v>
       </c>
@@ -11582,7 +11586,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>43132</v>
       </c>
@@ -11604,7 +11608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>82</v>
@@ -11628,7 +11632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43160</v>
       </c>
@@ -11648,7 +11652,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="41">
         <v>43191</v>
       </c>
@@ -11674,7 +11678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>43221</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43252</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>43106</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>137</v>
@@ -11748,7 +11752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43282</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>43313</v>
       </c>
@@ -11800,7 +11804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43344</v>
       </c>
@@ -11826,7 +11830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43374</v>
       </c>
@@ -11852,7 +11856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43405</v>
       </c>
@@ -11872,7 +11876,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>43435</v>
       </c>
@@ -11892,7 +11896,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23" t="s">
         <v>58</v>
       </c>
@@ -11910,7 +11914,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43466</v>
       </c>
@@ -11930,7 +11934,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>43497</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43525</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>336</v>
@@ -12002,7 +12006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>109</v>
@@ -12024,7 +12028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43556</v>
       </c>
@@ -12044,7 +12048,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43586</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43617</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43647</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43678</v>
       </c>
@@ -12142,7 +12146,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43709</v>
       </c>
@@ -12166,7 +12170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>82</v>
@@ -12188,7 +12192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>82</v>
@@ -12210,7 +12214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43739</v>
       </c>
@@ -12230,7 +12234,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43770</v>
       </c>
@@ -12250,7 +12254,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>43800</v>
       </c>
@@ -12270,7 +12274,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="48" t="s">
         <v>68</v>
       </c>
@@ -12288,7 +12292,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43831</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43862</v>
       </c>
@@ -12332,7 +12336,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>43891</v>
       </c>
@@ -12352,7 +12356,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43922</v>
       </c>
@@ -12372,7 +12376,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43952</v>
       </c>
@@ -12392,7 +12396,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43983</v>
       </c>
@@ -12412,7 +12416,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44013</v>
       </c>
@@ -12436,7 +12440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>109</v>
@@ -12458,7 +12462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44044</v>
       </c>
@@ -12478,7 +12482,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44075</v>
       </c>
@@ -12498,7 +12502,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44105</v>
       </c>
@@ -12518,7 +12522,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44136</v>
       </c>
@@ -12538,7 +12542,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44166</v>
       </c>
@@ -12562,7 +12566,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="48" t="s">
         <v>72</v>
       </c>
@@ -12580,7 +12584,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>44197</v>
       </c>
@@ -12600,7 +12604,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44228</v>
       </c>
@@ -12620,7 +12624,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44256</v>
       </c>
@@ -12640,7 +12644,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>44287</v>
       </c>
@@ -12660,7 +12664,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>44317</v>
       </c>
@@ -12680,7 +12684,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>44348</v>
       </c>
@@ -12700,7 +12704,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="49"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>44378</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>44409</v>
       </c>
@@ -12746,7 +12750,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44440</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>44470</v>
       </c>
@@ -12790,7 +12794,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>44501</v>
       </c>
@@ -12812,7 +12816,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>82</v>
@@ -12834,7 +12838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>137</v>
@@ -12858,7 +12862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44531</v>
       </c>
@@ -12878,7 +12882,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23" t="s">
         <v>77</v>
       </c>
@@ -12896,7 +12900,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44562</v>
       </c>
@@ -12916,7 +12920,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44593</v>
       </c>
@@ -12936,7 +12940,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44621</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44652</v>
       </c>
@@ -12980,7 +12984,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44682</v>
       </c>
@@ -13000,7 +13004,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44713</v>
       </c>
@@ -13026,7 +13030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44743</v>
       </c>
@@ -13052,7 +13056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44774</v>
       </c>
@@ -13072,7 +13076,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44805</v>
       </c>
@@ -13096,7 +13100,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>302</v>
@@ -13116,7 +13120,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44835</v>
       </c>
@@ -13136,7 +13140,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44866</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>81</v>
@@ -13182,7 +13186,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>82</v>
@@ -13204,7 +13208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44896</v>
       </c>
@@ -13228,7 +13232,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>106</v>
@@ -13248,7 +13252,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>82</v>
@@ -13270,7 +13274,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="48" t="s">
         <v>84</v>
       </c>
@@ -13288,7 +13292,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44927</v>
       </c>
@@ -13312,7 +13316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44958</v>
       </c>
@@ -13332,7 +13336,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44986</v>
       </c>
@@ -13352,7 +13356,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>45017</v>
       </c>
@@ -13376,7 +13380,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>80</v>
@@ -13398,7 +13402,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45047</v>
       </c>
@@ -13424,7 +13428,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>351</v>
@@ -13446,7 +13450,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>45078</v>
       </c>
@@ -13472,7 +13476,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>45108</v>
       </c>
@@ -13492,7 +13496,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>45139</v>
       </c>
@@ -13512,22 +13516,24 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>45170</v>
       </c>
       <c r="B507" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C507" s="13"/>
+      <c r="C507" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D507" s="39">
         <v>1</v>
       </c>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G507" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
@@ -13536,41 +13542,59 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>45200</v>
       </c>
-      <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
-      <c r="D508" s="39"/>
+      <c r="B508" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D508" s="39">
+        <v>1</v>
+      </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20"/>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40"/>
-      <c r="B509" s="20"/>
-      <c r="C509" s="13"/>
-      <c r="D509" s="39"/>
+      <c r="K508" s="49">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D509" s="39">
+        <v>2</v>
+      </c>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K509" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -13586,7 +13610,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -13602,7 +13626,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -13618,7 +13642,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13634,7 +13658,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13650,7 +13674,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13666,7 +13690,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13682,7 +13706,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13698,7 +13722,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13714,7 +13738,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13730,7 +13754,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13746,7 +13770,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13762,7 +13786,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13778,7 +13802,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13794,7 +13818,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13810,7 +13834,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13826,7 +13850,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13842,7 +13866,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13858,7 +13882,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13874,7 +13898,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13890,7 +13914,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13906,7 +13930,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13922,7 +13946,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13938,7 +13962,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13954,7 +13978,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13970,7 +13994,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13986,7 +14010,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14002,7 +14026,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14018,7 +14042,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14034,7 +14058,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14050,7 +14074,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="41"/>
       <c r="B540" s="15"/>
       <c r="C540" s="42"/>
@@ -14081,10 +14105,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14107,28 +14131,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -14141,7 +14165,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14170,7 +14194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>62.725999999999999</v>
       </c>
@@ -14202,17 +14226,17 @@
         <v>8.2999999999999741E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>352</v>
       </c>
@@ -14236,10 +14260,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>520.553</v>
+        <v>525.053</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14267,7 +14291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14293,7 +14317,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14319,7 +14343,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14345,7 +14369,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14371,7 +14395,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14397,7 +14421,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14423,7 +14447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14449,7 +14473,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14469,7 +14493,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14489,7 +14513,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14509,7 +14533,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14530,7 +14554,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14551,7 +14575,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14572,7 +14596,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14593,7 +14617,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14614,7 +14638,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14635,7 +14659,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14656,7 +14680,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14677,7 +14701,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14698,7 +14722,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14719,7 +14743,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14740,7 +14764,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14761,7 +14785,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14782,7 +14806,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14803,7 +14827,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14824,7 +14848,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14845,7 +14869,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14866,7 +14890,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14887,7 +14911,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14908,7 +14932,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14929,7 +14953,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14938,7 +14962,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14947,7 +14971,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14956,7 +14980,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14965,7 +14989,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14974,7 +14998,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14983,7 +15007,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14992,7 +15016,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15001,7 +15025,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15010,7 +15034,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15019,7 +15043,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15028,7 +15052,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15037,7 +15061,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15046,7 +15070,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15055,7 +15079,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15064,7 +15088,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15073,7 +15097,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15082,7 +15106,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15091,7 +15115,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15100,7 +15124,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15109,7 +15133,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15118,7 +15142,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15127,7 +15151,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15136,7 +15160,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15145,7 +15169,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15154,7 +15178,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15163,7 +15187,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15172,7 +15196,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15181,7 +15205,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15190,7 +15214,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
